--- a/USExcel.xlsx
+++ b/USExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wattieznicolas/Documents/Bac2/Q2/JavaProjet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E69E3A3-EFCA-AA43-A938-0252B6D54369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC49E76E-06A6-8047-A9BA-BE3F59D03735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{7FDB8962-BE05-3B40-8FCE-1046BDCB8552}"/>
   </bookViews>
@@ -47,18 +47,6 @@
     <t>US1 - En tant qu’utilisateur je réponds a des questions afin de me déplacer sur le plateau</t>
   </si>
   <si>
-    <t xml:space="preserve">US2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">US5 - </t>
-  </si>
-  <si>
     <t xml:space="preserve">US6 - </t>
   </si>
   <si>
@@ -75,6 +63,22 @@
   </si>
   <si>
     <t xml:space="preserve">                                      Backlog</t>
+  </si>
+  <si>
+    <t>US2 - En tant qu’utilisateur, je souhaite quitter une partie afin 
+de pouvoir en démarrer une nouvelle si je ne suis pas satisfait.</t>
+  </si>
+  <si>
+    <t>US3 - En tant qu’utilisateur, je souhaite
+ pouvoir choisir la difficulté des questions auxquelles je veux répondre afin de gagner des points.</t>
+  </si>
+  <si>
+    <t>US4 - En tant qu’utilisateur je peux me déplacer 
+sur un plateau à 2 dimensions, afin d’essayer de gagner la partie</t>
+  </si>
+  <si>
+    <t>US5 - En tant qu’utilisateur je peux choisir la 
+couleur de mon pion pour me différencier des autres joueurs</t>
   </si>
 </sst>
 </file>
@@ -464,7 +468,7 @@
   <dimension ref="C2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -490,49 +494,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>6</v>
+    <row r="4" spans="3:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/USExcel.xlsx
+++ b/USExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wattieznicolas/Documents/Bac2/Q2/JavaProjet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdelelidrissi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC49E76E-06A6-8047-A9BA-BE3F59D03735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2899DA-05AF-EB4B-B818-6E7CB520A415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{7FDB8962-BE05-3B40-8FCE-1046BDCB8552}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="16600" xr2:uid="{7FDB8962-BE05-3B40-8FCE-1046BDCB8552}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Test d'acceptation</t>
   </si>
   <si>
-    <t>US1 - En tant qu’utilisateur je réponds a des questions afin de me déplacer sur le plateau</t>
-  </si>
-  <si>
     <t xml:space="preserve">US6 - </t>
   </si>
   <si>
@@ -63,10 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                      Backlog</t>
-  </si>
-  <si>
-    <t>US2 - En tant qu’utilisateur, je souhaite quitter une partie afin 
-de pouvoir en démarrer une nouvelle si je ne suis pas satisfait.</t>
   </si>
   <si>
     <t>US3 - En tant qu’utilisateur, je souhaite
@@ -79,6 +72,13 @@
   <si>
     <t>US5 - En tant qu’utilisateur je peux choisir la 
 couleur de mon pion pour me différencier des autres joueurs</t>
+  </si>
+  <si>
+    <t>US1 - En tant qu’utilisateur je veux répondre a des questions afin de me déplacer sur le plateau</t>
+  </si>
+  <si>
+    <t>US2 - En tant qu’utilisateur, je souhaite quitter une partie 
+de pouvoir en démarrer une nouvelle</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8B7421-DFBF-4D46-A3E8-EA546F9B4823}">
   <dimension ref="C2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -483,60 +483,60 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:5" ht="51" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" ht="68" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" ht="51" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="68" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="68" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="51" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
